--- a/REGULAR/ONT/EMELO MARY JANE.xlsx
+++ b/REGULAR/ONT/EMELO MARY JANE.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVE CARD\REGULAR\ONT\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVECARD\REGULAR\ONT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31285368-FF74-4A57-8F86-2BAF989B3F4C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0814861-7DCE-4B8C-B73D-29615733089C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{2C4B9B69-0AD3-46D4-A495-D1BDE1D16EC6}"/>
   </bookViews>
@@ -29,20 +29,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="101">
   <si>
     <t>PERIOD</t>
   </si>
@@ -327,6 +319,24 @@
   </si>
   <si>
     <t>7/18-22/2022</t>
+  </si>
+  <si>
+    <t>2023</t>
+  </si>
+  <si>
+    <t>10/1,4,5</t>
+  </si>
+  <si>
+    <t>CASUAL</t>
+  </si>
+  <si>
+    <t>ONT</t>
+  </si>
+  <si>
+    <t>QL(3-0-0)</t>
+  </si>
+  <si>
+    <t>9/28-30/2022</t>
   </si>
 </sst>
 </file>
@@ -1019,7 +1029,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{1D52DCCA-84C7-4E23-9F01-BAD20F9E44D8}" name="Table1" displayName="Table1" ref="A8:K130" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{1D52DCCA-84C7-4E23-9F01-BAD20F9E44D8}" name="Table1" displayName="Table1" ref="A8:K132" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
   <tableColumns count="11">
     <tableColumn id="1" xr3:uid="{29298656-164E-44DD-A190-558D78410746}" name="PERIOD" dataDxfId="10"/>
     <tableColumn id="2" xr3:uid="{653A013C-2253-41B2-B51E-E0CEE6FCA4B9}" name="PARTICULARS" dataDxfId="9"/>
@@ -1348,12 +1358,12 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K130"/>
+  <dimension ref="A2:K132"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3576" topLeftCell="A80" activePane="bottomLeft"/>
-      <selection activeCell="F4" sqref="F4:G4"/>
-      <selection pane="bottomLeft" activeCell="K90" sqref="K90"/>
+      <pane ySplit="3576" topLeftCell="A87" activePane="bottomLeft"/>
+      <selection activeCell="F5" sqref="F5"/>
+      <selection pane="bottomLeft" activeCell="I91" sqref="I91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1416,12 +1426,16 @@
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="51"/>
+      <c r="B4" s="51" t="s">
+        <v>97</v>
+      </c>
       <c r="C4" s="51"/>
       <c r="D4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="52"/>
+      <c r="F4" s="52" t="s">
+        <v>98</v>
+      </c>
       <c r="G4" s="52"/>
       <c r="H4" s="26" t="s">
         <v>17</v>
@@ -1512,7 +1526,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>71.135000000000005</v>
+        <v>72.385000000000005</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -1522,7 +1536,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>73.75</v>
+        <v>71</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -3262,30 +3276,32 @@
       </c>
     </row>
     <row r="90" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A90" s="40">
-        <v>44835</v>
-      </c>
-      <c r="B90" s="20"/>
-      <c r="C90" s="13">
-        <v>1.25</v>
-      </c>
+      <c r="A90" s="40"/>
+      <c r="B90" s="20" t="s">
+        <v>99</v>
+      </c>
+      <c r="C90" s="13"/>
       <c r="D90" s="39"/>
       <c r="E90" s="9"/>
       <c r="F90" s="20"/>
-      <c r="G90" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G90" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H90" s="39"/>
       <c r="I90" s="9"/>
       <c r="J90" s="11"/>
-      <c r="K90" s="20"/>
+      <c r="K90" s="49" t="s">
+        <v>100</v>
+      </c>
     </row>
     <row r="91" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A91" s="40">
-        <v>44866</v>
-      </c>
-      <c r="B91" s="20"/>
+        <v>44835</v>
+      </c>
+      <c r="B91" s="20" t="s">
+        <v>49</v>
+      </c>
       <c r="C91" s="13">
         <v>1.25</v>
       </c>
@@ -3296,41 +3312,51 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
-      <c r="H91" s="39"/>
+      <c r="H91" s="39">
+        <v>1</v>
+      </c>
       <c r="I91" s="9"/>
       <c r="J91" s="11"/>
-      <c r="K91" s="20"/>
+      <c r="K91" s="49">
+        <v>44855</v>
+      </c>
     </row>
     <row r="92" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A92" s="40">
-        <v>44896</v>
-      </c>
-      <c r="B92" s="20"/>
-      <c r="C92" s="13">
-        <v>1.25</v>
-      </c>
+      <c r="A92" s="40"/>
+      <c r="B92" s="20" t="s">
+        <v>60</v>
+      </c>
+      <c r="C92" s="13"/>
       <c r="D92" s="39"/>
       <c r="E92" s="9"/>
       <c r="F92" s="20"/>
-      <c r="G92" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H92" s="39"/>
+      <c r="G92" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H92" s="39">
+        <v>3</v>
+      </c>
       <c r="I92" s="9"/>
       <c r="J92" s="11"/>
-      <c r="K92" s="20"/>
+      <c r="K92" s="49" t="s">
+        <v>96</v>
+      </c>
     </row>
     <row r="93" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A93" s="40"/>
+      <c r="A93" s="40">
+        <v>44866</v>
+      </c>
       <c r="B93" s="20"/>
-      <c r="C93" s="13"/>
+      <c r="C93" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D93" s="39"/>
       <c r="E93" s="9"/>
       <c r="F93" s="20"/>
-      <c r="G93" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G93" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H93" s="39"/>
       <c r="I93" s="9"/>
@@ -3338,15 +3364,19 @@
       <c r="K93" s="20"/>
     </row>
     <row r="94" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A94" s="40"/>
+      <c r="A94" s="40">
+        <v>44896</v>
+      </c>
       <c r="B94" s="20"/>
-      <c r="C94" s="13"/>
+      <c r="C94" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D94" s="39"/>
       <c r="E94" s="9"/>
       <c r="F94" s="20"/>
-      <c r="G94" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G94" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H94" s="39"/>
       <c r="I94" s="9"/>
@@ -3354,7 +3384,9 @@
       <c r="K94" s="20"/>
     </row>
     <row r="95" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A95" s="40"/>
+      <c r="A95" s="48" t="s">
+        <v>95</v>
+      </c>
       <c r="B95" s="20"/>
       <c r="C95" s="13"/>
       <c r="D95" s="39"/>
@@ -3370,15 +3402,19 @@
       <c r="K95" s="20"/>
     </row>
     <row r="96" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A96" s="40"/>
+      <c r="A96" s="40">
+        <v>44927</v>
+      </c>
       <c r="B96" s="20"/>
-      <c r="C96" s="13"/>
+      <c r="C96" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D96" s="39"/>
       <c r="E96" s="9"/>
       <c r="F96" s="20"/>
-      <c r="G96" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G96" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H96" s="39"/>
       <c r="I96" s="9"/>
@@ -3914,20 +3950,52 @@
       <c r="K129" s="20"/>
     </row>
     <row r="130" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A130" s="41"/>
-      <c r="B130" s="15"/>
-      <c r="C130" s="42"/>
-      <c r="D130" s="43"/>
+      <c r="A130" s="40"/>
+      <c r="B130" s="20"/>
+      <c r="C130" s="13"/>
+      <c r="D130" s="39"/>
       <c r="E130" s="9"/>
-      <c r="F130" s="15"/>
-      <c r="G130" s="42" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H130" s="43"/>
+      <c r="F130" s="20"/>
+      <c r="G130" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H130" s="39"/>
       <c r="I130" s="9"/>
-      <c r="J130" s="12"/>
-      <c r="K130" s="15"/>
+      <c r="J130" s="11"/>
+      <c r="K130" s="20"/>
+    </row>
+    <row r="131" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A131" s="40"/>
+      <c r="B131" s="20"/>
+      <c r="C131" s="13"/>
+      <c r="D131" s="39"/>
+      <c r="E131" s="9"/>
+      <c r="F131" s="20"/>
+      <c r="G131" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H131" s="39"/>
+      <c r="I131" s="9"/>
+      <c r="J131" s="11"/>
+      <c r="K131" s="20"/>
+    </row>
+    <row r="132" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A132" s="41"/>
+      <c r="B132" s="15"/>
+      <c r="C132" s="42"/>
+      <c r="D132" s="43"/>
+      <c r="E132" s="9"/>
+      <c r="F132" s="15"/>
+      <c r="G132" s="42" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H132" s="43"/>
+      <c r="I132" s="9"/>
+      <c r="J132" s="12"/>
+      <c r="K132" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="11">

--- a/REGULAR/ONT/EMELO MARY JANE.xlsx
+++ b/REGULAR/ONT/EMELO MARY JANE.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11520" windowHeight="12360"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="618" uniqueCount="377">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="624" uniqueCount="380">
   <si>
     <t>PERIOD</t>
   </si>
@@ -1164,6 +1164,15 @@
   </si>
   <si>
     <t>UT(0-1-5)</t>
+  </si>
+  <si>
+    <t>10/19,20,23/2023</t>
+  </si>
+  <si>
+    <t>10/17-18/2023</t>
+  </si>
+  <si>
+    <t>10/12,13/2023</t>
   </si>
 </sst>
 </file>
@@ -1856,8 +1865,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K524" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
-  <autoFilter ref="A8:K524"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K526" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
+  <autoFilter ref="A8:K526"/>
   <tableColumns count="11">
     <tableColumn id="1" name="PERIOD" dataDxfId="10"/>
     <tableColumn id="2" name="PARTICULARS" dataDxfId="9"/>
@@ -2186,12 +2195,12 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K524"/>
+  <dimension ref="A2:K526"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3690" topLeftCell="A457" activePane="bottomLeft"/>
-      <selection activeCell="B8" sqref="B8"/>
-      <selection pane="bottomLeft" activeCell="F474" sqref="F474"/>
+      <pane ySplit="3690" topLeftCell="A484" activePane="bottomLeft"/>
+      <selection activeCell="I9" sqref="I9"/>
+      <selection pane="bottomLeft" activeCell="N501" sqref="N501"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2354,7 +2363,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>92.340000000000032</v>
+        <v>91.090000000000032</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -2364,7 +2373,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>25</v>
+        <v>26.75</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -13404,13 +13413,15 @@
       <c r="B495" s="20" t="s">
         <v>99</v>
       </c>
-      <c r="C495" s="13"/>
+      <c r="C495" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D495" s="39"/>
       <c r="E495" s="9"/>
       <c r="F495" s="20"/>
-      <c r="G495" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G495" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H495" s="39">
         <v>1</v>
@@ -13426,13 +13437,15 @@
         <v>45170</v>
       </c>
       <c r="B496" s="20"/>
-      <c r="C496" s="13"/>
+      <c r="C496" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D496" s="39"/>
       <c r="E496" s="9"/>
       <c r="F496" s="20"/>
-      <c r="G496" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G496" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H496" s="39"/>
       <c r="I496" s="9"/>
@@ -13443,27 +13456,37 @@
       <c r="A497" s="40">
         <v>45200</v>
       </c>
-      <c r="B497" s="20"/>
-      <c r="C497" s="13"/>
-      <c r="D497" s="39"/>
+      <c r="B497" s="20" t="s">
+        <v>145</v>
+      </c>
+      <c r="C497" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D497" s="39">
+        <v>3</v>
+      </c>
       <c r="E497" s="9"/>
       <c r="F497" s="20"/>
-      <c r="G497" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G497" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H497" s="39"/>
       <c r="I497" s="9"/>
       <c r="J497" s="11"/>
-      <c r="K497" s="20"/>
+      <c r="K497" s="20" t="s">
+        <v>377</v>
+      </c>
     </row>
     <row r="498" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A498" s="40">
-        <v>45231</v>
-      </c>
-      <c r="B498" s="20"/>
+      <c r="A498" s="40"/>
+      <c r="B498" s="20" t="s">
+        <v>140</v>
+      </c>
       <c r="C498" s="13"/>
-      <c r="D498" s="39"/>
+      <c r="D498" s="39">
+        <v>2</v>
+      </c>
       <c r="E498" s="9"/>
       <c r="F498" s="20"/>
       <c r="G498" s="13" t="str">
@@ -13473,13 +13496,15 @@
       <c r="H498" s="39"/>
       <c r="I498" s="9"/>
       <c r="J498" s="11"/>
-      <c r="K498" s="20"/>
+      <c r="K498" s="20" t="s">
+        <v>378</v>
+      </c>
     </row>
     <row r="499" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A499" s="40">
-        <v>45261</v>
-      </c>
-      <c r="B499" s="20"/>
+      <c r="A499" s="40"/>
+      <c r="B499" s="20" t="s">
+        <v>122</v>
+      </c>
       <c r="C499" s="13"/>
       <c r="D499" s="39"/>
       <c r="E499" s="9"/>
@@ -13488,14 +13513,18 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H499" s="39"/>
+      <c r="H499" s="39">
+        <v>2</v>
+      </c>
       <c r="I499" s="9"/>
       <c r="J499" s="11"/>
-      <c r="K499" s="20"/>
+      <c r="K499" s="20" t="s">
+        <v>379</v>
+      </c>
     </row>
     <row r="500" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A500" s="40">
-        <v>45292</v>
+        <v>45231</v>
       </c>
       <c r="B500" s="20"/>
       <c r="C500" s="13"/>
@@ -13513,7 +13542,7 @@
     </row>
     <row r="501" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A501" s="40">
-        <v>45323</v>
+        <v>45261</v>
       </c>
       <c r="B501" s="20"/>
       <c r="C501" s="13"/>
@@ -13531,7 +13560,7 @@
     </row>
     <row r="502" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A502" s="40">
-        <v>45352</v>
+        <v>45292</v>
       </c>
       <c r="B502" s="20"/>
       <c r="C502" s="13"/>
@@ -13549,7 +13578,7 @@
     </row>
     <row r="503" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A503" s="40">
-        <v>45383</v>
+        <v>45323</v>
       </c>
       <c r="B503" s="20"/>
       <c r="C503" s="13"/>
@@ -13567,7 +13596,7 @@
     </row>
     <row r="504" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A504" s="40">
-        <v>45413</v>
+        <v>45352</v>
       </c>
       <c r="B504" s="20"/>
       <c r="C504" s="13"/>
@@ -13585,7 +13614,7 @@
     </row>
     <row r="505" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A505" s="40">
-        <v>45444</v>
+        <v>45383</v>
       </c>
       <c r="B505" s="20"/>
       <c r="C505" s="13"/>
@@ -13603,7 +13632,7 @@
     </row>
     <row r="506" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A506" s="40">
-        <v>45474</v>
+        <v>45413</v>
       </c>
       <c r="B506" s="20"/>
       <c r="C506" s="13"/>
@@ -13621,7 +13650,7 @@
     </row>
     <row r="507" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A507" s="40">
-        <v>45505</v>
+        <v>45444</v>
       </c>
       <c r="B507" s="20"/>
       <c r="C507" s="13"/>
@@ -13639,7 +13668,7 @@
     </row>
     <row r="508" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A508" s="40">
-        <v>45536</v>
+        <v>45474</v>
       </c>
       <c r="B508" s="20"/>
       <c r="C508" s="13"/>
@@ -13656,7 +13685,9 @@
       <c r="K508" s="20"/>
     </row>
     <row r="509" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A509" s="40"/>
+      <c r="A509" s="40">
+        <v>45505</v>
+      </c>
       <c r="B509" s="20"/>
       <c r="C509" s="13"/>
       <c r="D509" s="39"/>
@@ -13672,7 +13703,9 @@
       <c r="K509" s="20"/>
     </row>
     <row r="510" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A510" s="40"/>
+      <c r="A510" s="40">
+        <v>45536</v>
+      </c>
       <c r="B510" s="20"/>
       <c r="C510" s="13"/>
       <c r="D510" s="39"/>
@@ -13896,20 +13929,52 @@
       <c r="K523" s="20"/>
     </row>
     <row r="524" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A524" s="41"/>
-      <c r="B524" s="15"/>
-      <c r="C524" s="42"/>
-      <c r="D524" s="43"/>
+      <c r="A524" s="40"/>
+      <c r="B524" s="20"/>
+      <c r="C524" s="13"/>
+      <c r="D524" s="39"/>
       <c r="E524" s="9"/>
-      <c r="F524" s="15"/>
-      <c r="G524" s="42" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H524" s="43"/>
+      <c r="F524" s="20"/>
+      <c r="G524" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H524" s="39"/>
       <c r="I524" s="9"/>
-      <c r="J524" s="12"/>
-      <c r="K524" s="15"/>
+      <c r="J524" s="11"/>
+      <c r="K524" s="20"/>
+    </row>
+    <row r="525" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A525" s="40"/>
+      <c r="B525" s="20"/>
+      <c r="C525" s="13"/>
+      <c r="D525" s="39"/>
+      <c r="E525" s="9"/>
+      <c r="F525" s="20"/>
+      <c r="G525" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H525" s="39"/>
+      <c r="I525" s="9"/>
+      <c r="J525" s="11"/>
+      <c r="K525" s="20"/>
+    </row>
+    <row r="526" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A526" s="41"/>
+      <c r="B526" s="15"/>
+      <c r="C526" s="42"/>
+      <c r="D526" s="43"/>
+      <c r="E526" s="9"/>
+      <c r="F526" s="15"/>
+      <c r="G526" s="42" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H526" s="43"/>
+      <c r="I526" s="9"/>
+      <c r="J526" s="12"/>
+      <c r="K526" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -14076,7 +14141,7 @@
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="11">
         <f>SUM(Sheet1!E9,Sheet1!I9)</f>
-        <v>117.34000000000003</v>
+        <v>117.84000000000003</v>
       </c>
       <c r="C7" s="37">
         <v>1</v>
